--- a/evaluasi/Dokumen Evaluasi Sistem Peringkasan Otomatis.xlsx
+++ b/evaluasi/Dokumen Evaluasi Sistem Peringkasan Otomatis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="dok 1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="400">
   <si>
     <t>Banjir Bengkulu: Dianggap terparah hingga tudingan 'akibat tambang dan sawit'</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Namun ia menggarisbawahi pula kerusakan lingkungan di sekitar sungai yang memperburuk dampak hujan besar.</t>
   </si>
   <si>
-    <t>"Degradasi hutan, kerusakan lahan, degradasi daerah aliran sungai tinggi. Dipicu curah hujan maka terjadilah bencana yang masif," kata Sutopo dalam jumpa pers di Jakarta.</t>
-  </si>
-  <si>
     <t>Sebelumnya Menteri Energi dan Sumber Daya Mineral Ignasius Jonan menyebut delapan izin tambang batu bara memang dikeluarkan pemerintah setempat beberapa tahun terakhir.</t>
   </si>
   <si>
@@ -87,12 +84,6 @@
     <t>Di sisi lain, pejabat Kementerian Lingkungan Hidup dan Kehutanan (KLHK) menyangkal aktivitas beberapa perusahaan ini menurunkan kemampuan air tanah menyerap air hujan.</t>
   </si>
   <si>
-    <t>"Posisi izin itu di hulu, tidak terkait langsung dengan sungai. Jadi banjir ini adalah limpasan, curah hujan melebihi kapasitas sungai," kata Kasubdit Monitoring dan Evaluasi DAS KLHK, Ernawati.</t>
-  </si>
-  <si>
-    <t>"Izin dikeluarkan jauh dari sungai. Kajian pada saat aliran air melimpah kami bedakan dengan analisis dampak lingkungannya," ujarnya di Jakarta.</t>
-  </si>
-  <si>
     <t>Bagaimanapun, dampak banjir dan longsor di Bengkulu masih terus dirasakan warga setempat, meski air berangsur surut.</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>Sementara itu, Prakash Javadekar, menteri lingkungan hidup, menyarankan warga untuk "memulai hari Anda dengan musik", menambahkan tautan ke "komposisi tematik yang gemilang".</t>
   </si>
   <si>
-    <t>"Itukah alasanmu membuat kita tuli mendengar masalah polusi?" satu pengguna Twitter merespons.</t>
-  </si>
-  <si>
     <t>"Sepertinya kamu terlalu sibuk mendengarkan musik sehingga kamu tidak bisa mendengarkan kami!"</t>
   </si>
   <si>
@@ -264,9 +252,6 @@
     <t>"Hingga saat ini kami masih mendata korban banjir, tanah longsor dan jembatan putus," ujar Rahman, Jumat (12/10), kepada wartawan di Padang, Agusmanto, yang melapor untuk BBC News Indonesia.</t>
   </si>
   <si>
-    <t>"Tidak ada korban jiwa. Pasien (ibu hamil) sudah dirujuk ke RSUD Pasaman," ujarnya.</t>
-  </si>
-  <si>
     <t>Longsor yang terjadi Ranah Batu, Jorong Piubuah, Nagari Tanjung Bonai, Kecamatan Lintau Buo Utara, Tanah Datar terjadi Kamis kemarin, sekitar pukul 18.30 WIB.</t>
   </si>
   <si>
@@ -414,35 +399,6 @@
     <t>"Ini memiliki efek setara dengan merokok tembakau," kata WHO di situs webnya.</t>
   </si>
   <si>
-    <t>Komentar terakhir Kejriwal tampaknya tidak akan membuat senang para pejabat pemerintah, lapor editor regional BBC Asia Selatan Jill McGivering. Dia mengatakan politisi India saling menyalahkan atas kondisi tersebut.</t>
-  </si>
-  <si>
-    <r>
-      <t>Organisasi Kesehatan Dunia (WHO) mengatakan sepertiga kematian akibat </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stroke</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, kanker paru-paru dan penyakit jantung disebabkan oleh polusi udara.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Korban ini sedang hamil," kata Haris.</t>
   </si>
   <si>
@@ -470,15 +426,9 @@
     <t>Namun Sri Wahyu Kurniawati, seorang guru berusia 41 tahun, di desa Warung Kiara, Kabupaten Sukabumi mengaku sempat panik.</t>
   </si>
   <si>
-    <t>"Ya getarannya sekitar 20 detik. Walaupun tidak ada benda atau barang yang berjatuhan," katanya.</t>
-  </si>
-  <si>
     <t>Saat itu ia sedang bersama keponakannya seorang bocah bernama Febby.</t>
   </si>
   <si>
-    <t>"Febby berteriak, 'Gempa! Cepat keluar, ada gempa!" Kami pun langsung lari keluar rumah. Takut juga," katanya.</t>
-  </si>
-  <si>
     <t>Sejumlah tetangganya juga sudah berada di luar rumah, menghindari kemungkinan buruk kalau gempa besar merusak rumah mereka dan membahayakan jiwa.</t>
   </si>
   <si>
@@ -497,21 +447,12 @@
     <t>Hal yang sama terjadi pada ibu Entin 67 tahun yang tinggal di pusat kota Sukabumi.</t>
   </si>
   <si>
-    <t>"Saya tidak tahu ini gempa atau bukan, karena hujan lumayan deras di luar. Saya diam saja sampai getaran berhenti," katanya kepada Ani Mulyani dari BBC Indonesia.</t>
-  </si>
-  <si>
     <t>"Tetangga di sekitar pun tidak keluar rumah, berhubung hujan deras," tandasnya.</t>
   </si>
   <si>
     <t>Getaran gempa juga dirasakan sampai Bandung dan Depok, menurut warga setempat.</t>
   </si>
   <si>
-    <t>Maya, seorang warga Bandung</t>
-  </si>
-  <si>
-    <t>Pepy, seorang ibu rumah tangga di Depok, menyatakan sempat panik dan keluar rumah.</t>
-  </si>
-  <si>
     <t>"Saya sedang tiduran, tiba-tiba saya merasa ada getaran dan keluar rumah bersama anak-anak," kata Pepy.</t>
   </si>
   <si>
@@ -521,9 +462,6 @@
     <t>Deputi Bidang Geofisika BMKG, Muhammad Fadly, mengatakan ada peningkatan frekuensi gempa bumi pada 2018 dibanding tahun-tahun sebelumnya.</t>
   </si>
   <si>
-    <t>"Kecuali di suatu tempat belum ada gempa, tapi kita tahu ada sesar atau patahan di sana. Itu yang bahaya," sambungnya.</t>
-  </si>
-  <si>
     <t>Karena itu saban hari BMKG bekerja mendeteksi goncangan-goncangan akibat gempa dengan menggunakan 175 seismograf.</t>
   </si>
   <si>
@@ -539,58 +477,22 @@
     <t>Sementara gempa bumi, melanda Manokwari, tanpa menimbulkan kerusakan dan korban berarti.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebelumnya, Sukabumi dilanda bencana longsor, akibat hujan deras, yang menewaskan sejumlah orang. </t>
-  </si>
-  <si>
     <t>Itu kan pelepasan energi untuk mencapai kestabilan," ujar Deputi Bidang Geofisika BMKG, Muhammad Fadly, dalam percakapan dengan BBC News Indonesia, beberapa waktu lalu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapi tidak apa-apa, yang penting tidak besar magnitudonya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadi memang saat ini sesar atau patahan itu sedang aktif-aktifnya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Terus ada gempa bumi, baik di Palu, Sulawesi Tengah, Sulawesi Selatan, Lombok, Aceh, Sumatera, Nias. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alat itu, menurut Muhamad Fadly, sesungguhnya masih sangat kurang dari angka ideal yakni 1.000 seismograf. </t>
-  </si>
-  <si>
     <t>Ia berkaca pada Jepang yang luas negaranya seperlima Indonesia saja, punya 1.500 alat deteksi.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Sensor itu kan dipasang sejak 2006. Kalau sekarang berarti sudah banyak yang rusak, pemeliharaannya juga setengah mati. </t>
-  </si>
-  <si>
-    <t>Jadi yang sudah tidak berfungsi, kita ganti. Jadi ya sampai jumlahnya tetap segitu saja," jelasnya.</t>
-  </si>
-  <si>
     <t>Karena itu, dia berharap tahun depan BMKG bisa menambah alat pendeteksi itu hingga mencapai 200.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lantaran kurangnya seismograf, data gempa bumi yang diterima dan diolah BMKG tidak presisi. </t>
-  </si>
-  <si>
     <t>Beberapa medium yang dipakai seperti media sosial, website, dan aplikasi berbasis telepon pintar.</t>
   </si>
   <si>
-    <t xml:space="preserve">Meski tak bisa memprediksi kapan gempa bumi terjadi, BMKG akan memaksimalkan peralatan yang ada untuk menyebarkan informasi kepada pemerintah daerah maupun Badan Nasional Penanggulangan Bencana (BNPB). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebab BMKG hanya bisa mendeteksi terjadinya tsunami yang disebabkan gempa bumi. </t>
-  </si>
-  <si>
     <t>Sedangkan penyebab dari gunung api atau longsor, nihil.</t>
   </si>
   <si>
     <t>"Gunung api di Indonesia kan banyak, kalau jaringan BMKG bisa masuk ke situ, pemantauan bisa jadi lebih cepat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jadi ke depan sudah dibicarakan supaya kita bisa masuk ke jaringan PVMBG."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sementara itu, koordinasi antarlembaga yang selama ini macet, kata Muhamad Fadly, tengah dicarikan jalan keluarnya. </t>
   </si>
   <si>
     <t>Gempa lagi: berpusat di Sukabumi, terasa hingga Bandung dan Depok</t>
@@ -838,24 +740,9 @@
     <t>Sejumlah sekolah di Kota Palembang, Sumatera Selatan, memutuskan memulangkan siswa-siswa mereka lantaran kabut asap semakin tebal menyelimuti kota tersebut pada Senin (14/10) pagi.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bahkan jarak pandang hanya 10 meter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sejumlah warga Palembang, Sumatera Selatan, mengeluhkan kabut asap pada Senin (14/10) tergolong parah. </t>
-  </si>
-  <si>
     <t>Sangat terasa, apalagi saya pakai sepeda motor," kata dia.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Saya selalu ke luar rumah pukul 06.00 WIB karena ada jadwal senam, sempat terkejut juga karena jarak pandang hanya 10 meter. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kebakaran di OKI ini memang sulit dipadamkan karena terjadi di kawasan gambut, dan akses darat yang terbatas. belum lagi jika terbakar, asapnya mengarah ke Palembang," kata Ansori.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Kami selalu lakukan waterbombing (pemadaman dari udara), setiap hari mengerahkan lima unit helikopter. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sejumlah sekolah di Kota Palembang, Sumatera Selatan, memutuskan memulangkan siswa-siswa mereka lantaran kabut asap semakin tebal menyelimuti kota tersebut pada Senin (14/10) pagi. </t>
   </si>
   <si>
@@ -892,96 +779,6 @@
     <t>https://www.bbc.com/indonesia/dunia-48290740</t>
   </si>
   <si>
-    <r>
-      <t>"Pagi ini kami memulangkan siswa karena melihat kabut asap yang tebal dan berdampak buruk terhadap siswa, oleh karenanya atas instruksi Kadiknas Kota Palembang melalui pesan WA Grup meminta siswa dipulangkan dan belajar di rumah masing-masing saja," jelas Siti kepada radio </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Elshinta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"Hari ini seluruh TK hingga SMP negeri dan swasta sederajat diliburkan, untuk besok dan seterusnya akan diberikan edaran lebih lanjut," kata Ahmad Zulinto kepada kantor berita </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Antara.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"Daerah yang tidak terdampak kabut asap tetap normal tetap belajar, untuk daerah yang terkategori sedang tetap belajar namun jam masuk sekolah diundur dan kami himbau memakai masker, bagi daerah terkategori parah maka siswa diberikan tugas dengan memaksimalkan kelas daring," kata Widodo kepada </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Antara.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"Saya terkejut, kenapa gelap ini. Kemarin-kemarin ada kabut asap, tapi tidak separah hari ini," kata dia sebagaimana dikutip </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Antara.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"Para pandu kapal menunda gerakan kapal-kapal bertonase untuk sementara waktu," kata Kepala Seksi Lalu lintas pelayaran Kantor Kesyahbandaran dan Otoritas Pelabuhan (KSOP) Kelas II Palembang, Andriawan, kepada </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Antara.</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.bbc.com/indonesia/indonesia-50038237</t>
   </si>
   <si>
@@ -1003,12 +800,6 @@
     <t>Agus berkata, aktivitas manusia itulah yang membedakan dampak bencana longsor di Jawa Barat dan daerah lain yang memiliki tanah gembur atau lapuk serta mudah menyerap air.</t>
   </si>
   <si>
-    <t>"Masyarakat mau tidak mau terus tumbuh di wilayah ini. Lereng tidak stabil karena untuk perumahan," kata Agus.</t>
-  </si>
-  <si>
-    <t>"Ini daerah pegunungan, daerah gunung api, kalau melapuk sangat mudah pecah. Seumpamanya hujan, tanah akan menyerap air sehingga licin dan gembur," kata Agus.</t>
-  </si>
-  <si>
     <t>Gubernur Jawa Barat Ahmad Heryawan alias Aher tidak memungkiri data PVMBG.</t>
   </si>
   <si>
@@ -1039,36 +830,21 @@
     <t>Sementara di Sulawesi Selatan, tingkat kerawanan yang sama ada di Tana Toraja dan Toraja Utara yang juga berada di perbukitan.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ia menuturkan, faktor itu berkaitan pula dengan kondisi geografis Jabar.</t>
-  </si>
-  <si>
     <t>Di luar faktor manusia, secara geologi, kata Agus, Jawa Barat berada di atas tanah yang mudah menyerap air dan gembur.</t>
   </si>
   <si>
     <t>Persentase potensi longsor pada empat dari enam provinsi di pulau ini lebih dari 50%.</t>
   </si>
   <si>
-    <t xml:space="preserve">Merujuk data PVMBG per Februari 2018, Pulau Jawa merupakan wilayah dengan tingkat kerentanan longsor paling tinggi. </t>
-  </si>
-  <si>
     <t>Salah satu peringatan yang diberikan PVMBG adalah memindahkan drainase atau arus air dari dataran tinggi yang menuju ke pemukiman penduduk.</t>
   </si>
   <si>
-    <t xml:space="preserve">Agus Budianto mengatakan PVMBG menyediakan peta kerawanan tanah bergerak agar dampak longsor dapat dinihilkan. </t>
-  </si>
-  <si>
     <t>Masyarakat harus melaporkan kalau air yang meluncur terus membesar," kata Agus.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Vegetasi harus diselesaikan dan air tidak mengalir ke lereng, melainkan ke tempat landai. </t>
-  </si>
-  <si>
     <t>Daerah tadi serupa dengan Fak-Fak, Sorong, Pegunungan Arfak, dan Teluk Bintuni di Papua Barat.</t>
   </si>
   <si>
-    <t xml:space="preserve">Di Papua, lima kabupaten, yaitu Jaya Wijaya, Lanny Jaya, Pegunungan Bintang, Tolikara, dan Yahukimo, masuk kategori rawan longsor tertinggi. </t>
-  </si>
-  <si>
     <t>Hujan deras mengancam Jakarta dan sekitarnya, Jawa Barat paling rentan tanah longsor</t>
   </si>
   <si>
@@ -1081,9 +857,6 @@
     <t>Menteri Koordinator Bidang Politik Hukum dan Keamanan Wiranto mengatakan negara yang bersedia mengirimkan pesawat C130, yakni Singapura, Malaysia, India, Korea Selatan, dan Amerika Serikat.</t>
   </si>
   <si>
-    <t>"Kita minta bantuan pesawat C130. Pesawat jenis itu yang bisa mendarat dan take off. Jumlah pesawat C130 kita terbatas," ujar Wiranto dalam jumpa pers di Jakarta, Selasa (2/10).</t>
-  </si>
-  <si>
     <t>Dengan kondisi Bandara Mutiara Sis-Al Jufri di Palu, pesawat Hercules C-130 memang ideal karena bobotnya berat dan bisa mendarat dan lepas landas di landasan pacu yang pendek.</t>
   </si>
   <si>
@@ -1144,158 +917,18 @@
     <t>Sementara itu, Uni Eropa telah mengumumkan bakal mengucurkan 1,5 juta euro (Rp25 miliar) dalam bantuan langsung.</t>
   </si>
   <si>
-    <r>
-      <t>Dalam pernyataan resminya yang dikutip </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ABC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Perdana Menteri Australia, Scott Morrison, mengaku telah menghubungi Presiden Joko Widodo untuk menyampaikan komitmennya dalam memberi dukungan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"Jika dia perlu bantuan kita, dia akan mendapatkannya," kata Morrison kepada </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ABC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"Saya terkejut mendengar gempa bumi kuat dan tsunami yang besar menghantam Provinsi Sulawesi Tengah dan sedih dengan banyaknya nyawa yang hilang dan kerusakan yang terjadi," kata Xi seperti dilansir dari </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>China Daily</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Minggu (30/9).</t>
-    </r>
-  </si>
-  <si>
     <t>Pemerintah Indonesia memutuskan untuk menerima tawaran tersebut.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gempa dan tsunami yang melanda Palu dan sejumlah daerah lainnya di Sulawesi Tengah membuat berbagai negara menyampaikan duka cita sekaligus tawaran bantuan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Tadi malam, Presiden Jokowi memberi persetujuan kepada kami untuk menerima bantuan internasional untuk penanganan darurat bencana. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saya membantu mengoordinasikan bantuan sektor swasta dari seantero dunia. </t>
-  </si>
-  <si>
     <t>Mohon kirimkan pesan kepada saya melalui akun media sosial atau email: tom@bkpm.go.id," sebutnya.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Beliau mengatakan bahwa Presiden telah menyatakan menerima bantuan internasional sesuai kebutuhan kita. </t>
-  </si>
-  <si>
     <t>Artinya kita "welcome" dengan tawaran internasional.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nanti akan dikoordinir Menkopolhukam. </t>
-  </si>
-  <si>
     <t>Mekanisme dan prosedur sedang disiapkan BNPB dan Kemenlu sesuai dengan peraturan yang ada," sebut Sutopo.</t>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Declare</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> bantuan internasional itu tidak harus status bencana nasional. Presiden tidak </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mendeclare</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> status bencana nasional. </t>
-    </r>
-  </si>
-  <si>
     <t>Jadi gempa dan stunami di Sulteng bukan bencana nasional," sambungnya.</t>
   </si>
   <si>
@@ -1341,9 +974,6 @@
     <t>Api kerap muncul dari balik lahan gambut yang terletak dekat dari gedung sekolah.</t>
   </si>
   <si>
-    <t>"Kami belum pulang (dari sekolah), tiba-tiba ada api membesar di belakang gedung sekolah. Dengan respons spontan, kita ambil ember, kita siramin," tuturnya.</t>
-  </si>
-  <si>
     <t>Yang membuatnya tidak habis pikir, kejadian itu terus berulang hingga sekarang dengan skala yang lebih besar.</t>
   </si>
   <si>
@@ -1368,105 +998,48 @@
     <t>Ironisnya, selama dua pekan terakhir, Gusti mengaku hanya ia sendiri pemilik lahan di kawasan itu yang ikut turun memadamkan api.</t>
   </si>
   <si>
-    <t>Alhasil, pria paruh baya itu pun turut memadamkan api di lahan milik orang lain, agar percikan api tidak menjalar lebih parah ke kebunnya</t>
-  </si>
-  <si>
     <t>Gusti lantas menggali sendiri sumur di lahan miliknya untuk bisa mendapatkan air, demi bisa terus menjaga lahannya dari kerusakan yang lebih parah akibat api.</t>
   </si>
   <si>
-    <t>"Kalau harga satu pohon rambutan sih berapa saja, 20 ribu? Tapi merawatnya itu empat tahunan loh, Mas," ungkap Gusti getir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Kesulitan kami yang terutama adalah sumber air. </t>
-  </si>
-  <si>
     <t>Jadi karena ini musim kemarau, Palangkaraya ini kering, sama sekali kering," tutur Zulkarnaen, Koordinator Taruna Siaga Bencana (Tagana) Kota Palangkaraya, kepada BBC News Indonesia.</t>
   </si>
   <si>
     <t>Selain kelangkaan sumber air, sifat alami gambut kering yang mudah terbakar dan 'menyimpan' bara di dalam rongga tanah, membuat pemadaman api memakan waktu yang lebih lama.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Setiap titik setidaknya memerlukan waktu satu jam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selain mereka yang bergerak di bawah kementerian dan lembaga pemerintahan, sejumlah lembaga swadaya masyarakat pun ikut ambil bagian dalam penanganan karhutla. </t>
-  </si>
-  <si>
     <t>Youth Act Kalimantan salah satunya.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kejadian itu, menurutnya, terjadi beberapa kali di sekitar sekolahnya dulu. </t>
-  </si>
-  <si>
     <t>Ia, teman dan gurunya memadamkan api dengan menyiram serta memangkas tanaman kering di sekitar lokasi.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Ini bisa dicegah, ini bisa dihentikan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karena ini bukan bencana alam seperti gempa atau tsunami yang datangnya tiba-tiba - hanya Tuhan yang tahu. </t>
-  </si>
-  <si>
     <t>Tidak," pungkas Andre.</t>
   </si>
   <si>
-    <t xml:space="preserve">Menghentikan rambatan api karhutla nyatanya bukan hanya dilakoni para pemadam profesional dan relawan, melainkan juga warga setempat. </t>
-  </si>
-  <si>
     <t>Seperti I Gusti Putu Tama yang menjaga kebun kecil milik pribadi di Kecamatan Jekan Raya, Palangkaraya.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lahannya 'hanya' berukuran 20x40 meter yang terdiri dari tanah gambut. </t>
-  </si>
-  <si>
     <t>Setelah pensiun, ia sengaja menghabiskan waktu di lahan tersebut untuk bercocok tanam.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Ini pohon nanas, di depan ini sudah mati semua. </t>
-  </si>
-  <si>
     <t>Ada rambutan berapa pohon, pohon petai ada juga," tutur Gusti sambil menunjukkan kepada kami kondisi tanaman-tanamannya yang kini terlihat gosong.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebagian besar habis terbakar. </t>
-  </si>
-  <si>
     <t>Api sebelumnya merambat dari lahan gambut milik orang lain di sekitarnya.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Sepandangan mata saya selama berapa hari ini nggak ada yang lewat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada satu, cuma nengok aja, lalu pergi lagi. </t>
-  </si>
-  <si>
     <t>Tidak ada kepedulian," imbuhnya.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebelumnya, relawan datang membantu melawan api, namun terhenti karena habisnya sumber air dari sumur galian terdekat. </t>
-  </si>
-  <si>
     <t>Mobil dari tim pemadam kebakaran tidak bisa masuk ke dekat lahannya, karena akses berupa pematang yang sempit turut menjadi rapuh karena terkena rambatan api.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Kalau mobil-mobil pemadam itu mungkin di daerah-daerah jalan besar aja. </t>
-  </si>
-  <si>
     <t>Waterbombing-nya lewat aja, tapi tidak dibom di sini," katanya.</t>
   </si>
   <si>
-    <t xml:space="preserve">Soal kerugian, ia tidak bisa menghitungnya. </t>
-  </si>
-  <si>
     <t>Kebun itu ia rawat agar sewaktu-waktu bisa mengajak anak-cucunya berkunjung dan menikmati hasil panen buah-buahan yang ditanamnya.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Tanah sudah begini keadaannya, merawatnya sulit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perlu tenaga, biaya, mencangkuli lagi karena berlubang-lubang. </t>
-  </si>
-  <si>
     <t>Kerugiannya bisa dilihat sendiri," tutupnya.</t>
   </si>
   <si>
@@ -1474,6 +1047,285 @@
   </si>
   <si>
     <t>https://www.bbc.com/indonesia/indonesia-49764582</t>
+  </si>
+  <si>
+    <t>"Degradasi hutan, kerusakan lahan, degradasi daerah aliran sungai tinggi.</t>
+  </si>
+  <si>
+    <t>Dipicu curah hujan maka terjadilah bencana yang masif," kata Sutopo dalam jumpa pers di Jakarta.</t>
+  </si>
+  <si>
+    <t>Jadi banjir ini adalah limpasan, curah hujan melebihi kapasitas sungai," kata Kasubdit Monitoring dan Evaluasi DAS KLHK, Ernawati.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Posisi izin itu di hulu, tidak terkait langsung dengan sungai. </t>
+  </si>
+  <si>
+    <t>Kajian pada saat aliran air melimpah kami bedakan dengan analisis dampak lingkungannya," ujarnya di Jakarta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Izin dikeluarkan jauh dari sungai. </t>
+  </si>
+  <si>
+    <t>Organisasi Kesehatan Dunia (WHO) mengatakan sepertiga kematian akibat stroke, kanker paru-paru dan penyakit jantung disebabkan oleh polusi udara.</t>
+  </si>
+  <si>
+    <t>Komentar terakhir Kejriwal tampaknya tidak akan membuat senang para pejabat pemerintah, lapor editor regional BBC Asia Selatan Jill McGivering.</t>
+  </si>
+  <si>
+    <t>Dia mengatakan politisi India saling menyalahkan atas kondisi tersebut.</t>
+  </si>
+  <si>
+    <t>"Itukah alasanmu membuat kita tuli mendengar masalah polusi?"</t>
+  </si>
+  <si>
+    <t>satu pengguna Twitter merespons.</t>
+  </si>
+  <si>
+    <t>Pasien (ibu hamil) sudah dirujuk ke RSUD Pasaman," ujarnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tidak ada korban jiwa. </t>
+  </si>
+  <si>
+    <t>Sebelumnya, Sukabumi dilanda bencana longsor, akibat hujan deras, yang menewaskan sejumlah orang.</t>
+  </si>
+  <si>
+    <t>"Ya getarannya sekitar 20 detik.</t>
+  </si>
+  <si>
+    <t>"Febby berteriak, 'Gempa!</t>
+  </si>
+  <si>
+    <t>Cepat keluar, ada gempa!"</t>
+  </si>
+  <si>
+    <t>Kami pun langsung lari keluar rumah.</t>
+  </si>
+  <si>
+    <t>"Saya tidak tahu ini gempa atau bukan, karena hujan lumayan deras di luar.</t>
+  </si>
+  <si>
+    <t>Saya diam saja sampai getaran berhenti," katanya kepada Ani Mulyani dari BBC Indonesia.</t>
+  </si>
+  <si>
+    <t>Maya, seorang warga Bandung dan Pepy, seorang ibu rumah tangga di Depok, menyatakan sempat panik dan keluar rumah.</t>
+  </si>
+  <si>
+    <t>"Terus ada gempa bumi, baik di Palu, Sulawesi Tengah, Sulawesi Selatan, Lombok, Aceh, Sumatera, Nias.</t>
+  </si>
+  <si>
+    <t>Jadi memang saat ini sesar atau patahan itu sedang aktif-aktifnya.</t>
+  </si>
+  <si>
+    <t>Tapi tidak apa-apa, yang penting tidak besar magnitudonya.</t>
+  </si>
+  <si>
+    <t>"Kecuali di suatu tempat belum ada gempa, tapi kita tahu ada sesar atau patahan di sana.</t>
+  </si>
+  <si>
+    <t>Itu yang bahaya," sambungnya.</t>
+  </si>
+  <si>
+    <t>Alat itu, menurut Muhamad Fadly, sesungguhnya masih sangat kurang dari angka ideal yakni 1.000 seismograf.</t>
+  </si>
+  <si>
+    <t>Kalau sekarang berarti sudah banyak yang rusak, pemeliharaannya juga setengah mati.</t>
+  </si>
+  <si>
+    <t>Jadi ya sampai jumlahnya tetap segitu saja," jelasnya.</t>
+  </si>
+  <si>
+    <t>Lantaran kurangnya seismograf, data gempa bumi yang diterima dan diolah BMKG tidak presisi.</t>
+  </si>
+  <si>
+    <t>Meski tak bisa memprediksi kapan gempa bumi terjadi, BMKG akan memaksimalkan peralatan yang ada untuk menyebarkan informasi kepada pemerintah daerah maupun Badan Nasional Penanggulangan Bencana (BNPB).</t>
+  </si>
+  <si>
+    <t>Sementara itu, koordinasi antarlembaga yang selama ini macet, kata Muhamad Fadly, tengah dicarikan jalan keluarnya.</t>
+  </si>
+  <si>
+    <t>Sebab BMKG hanya bisa mendeteksi terjadinya tsunami yang disebabkan gempa bumi.</t>
+  </si>
+  <si>
+    <t>Jadi ke depan sudah dibicarakan supaya kita bisa masuk ke jaringan PVMBG."</t>
+  </si>
+  <si>
+    <t>Walaupun tidak ada benda atau barang yang berjatuhan," katanya.</t>
+  </si>
+  <si>
+    <t>Takut juga," katanya.</t>
+  </si>
+  <si>
+    <t>"Sensor itu kan dipasang sejak 2006.</t>
+  </si>
+  <si>
+    <t>Jadi yang sudah tidak berfungsi, kita ganti.</t>
+  </si>
+  <si>
+    <t>"Pagi ini kami memulangkan siswa karena melihat kabut asap yang tebal dan berdampak buruk terhadap siswa, oleh karenanya atas instruksi Kadiknas Kota Palembang melalui pesan WA Grup meminta siswa dipulangkan dan belajar di rumah masing-masing saja," jelas Siti kepada radioÂ Elshinta.</t>
+  </si>
+  <si>
+    <t>"Hari ini seluruh TK hingga SMP negeri dan swasta sederajat diliburkan, untuk besok dan seterusnya akan diberikan edaran lebih lanjut," kata Ahmad Zulinto kepada kantor beritaÂ Antara.</t>
+  </si>
+  <si>
+    <t>"Daerah yang tidak terdampak kabut asap tetap normal tetap belajar, untuk daerah yang terkategori sedang tetap belajar namun jam masuk sekolah diundur dan kami himbau memakai masker, bagi daerah terkategori parah maka siswa diberikan tugas dengan memaksimalkan kelas daring," kata Widodo kepadaÂ Antara.</t>
+  </si>
+  <si>
+    <t>Sejumlah warga Palembang, Sumatera Selatan, mengeluhkan kabut asap pada Senin (14/10) tergolong parah.</t>
+  </si>
+  <si>
+    <t>Bahkan jarak pandang hanya 10 meter.</t>
+  </si>
+  <si>
+    <t>"Saya terkejut, kenapa gelap ini.</t>
+  </si>
+  <si>
+    <t>Kemarin-kemarin ada kabut asap, tapi tidak separah hari ini," kata dia sebagaimana dikutipÂ Antara.</t>
+  </si>
+  <si>
+    <t>"Saya selalu ke luar rumah pukul 06.00 WIB karena ada jadwal senam, sempat terkejut juga karena jarak pandang hanya 10 meter.</t>
+  </si>
+  <si>
+    <t>"Kami selalu lakukan waterbombing (pemadaman dari udara), setiap hari mengerahkan lima unit helikopter.</t>
+  </si>
+  <si>
+    <t>Kebakaran di OKI ini memang sulit dipadamkan karena terjadi di kawasan gambut, dan akses darat yang terbatas.</t>
+  </si>
+  <si>
+    <t>belum lagi jika terbakar, asapnya mengarah ke Palembang," kata Ansori.</t>
+  </si>
+  <si>
+    <t>"Para pandu kapal menunda gerakan kapal-kapal bertonase untuk sementara waktu," kata Kepala Seksi Lalu lintas pelayaran Kantor Kesyahbandaran dan Otoritas Pelabuhan (KSOP) Kelas II Palembang, Andriawan, kepadaÂ Antara.</t>
+  </si>
+  <si>
+    <t>"Masyarakat mau tidak mau terus tumbuh di wilayah ini.</t>
+  </si>
+  <si>
+    <t>Lereng tidak stabil karena untuk perumahan," kata Agus.</t>
+  </si>
+  <si>
+    <t>Ia menuturkan, faktor itu berkaitan pula dengan kondisi geografis Jabar.</t>
+  </si>
+  <si>
+    <t>"Ini daerah pegunungan, daerah gunung api, kalau melapuk sangat mudah pecah.</t>
+  </si>
+  <si>
+    <t>Seumpamanya hujan, tanah akan menyerap air sehingga licin dan gembur," kata Agus.</t>
+  </si>
+  <si>
+    <t>Merujuk data PVMBG per Februari 2018, Pulau Jawa merupakan wilayah dengan tingkat kerentanan longsor paling tinggi.</t>
+  </si>
+  <si>
+    <t>Agus Budianto mengatakan PVMBG menyediakan peta kerawanan tanah bergerak agar dampak longsor dapat dinihilkan.</t>
+  </si>
+  <si>
+    <t>"Vegetasi harus diselesaikan dan air tidak mengalir ke lereng, melainkan ke tempat landai.</t>
+  </si>
+  <si>
+    <t>Di Papua, lima kabupaten, yaitu Jaya Wijaya, Lanny Jaya, Pegunungan Bintang, Tolikara, dan Yahukimo, masuk kategori rawan longsor tertinggi.</t>
+  </si>
+  <si>
+    <t>"Kita minta bantuan pesawat C130.</t>
+  </si>
+  <si>
+    <t>Pesawat jenis itu yang bisa mendarat dan take off.</t>
+  </si>
+  <si>
+    <t>Jumlah pesawat C130 kita terbatas," ujar Wiranto dalam jumpa pers di Jakarta, Selasa (2/10).</t>
+  </si>
+  <si>
+    <t>Gempa dan tsunami yang melanda Palu dan sejumlah daerah lainnya di Sulawesi Tengah membuat berbagai negara menyampaikan duka cita sekaligus tawaran bantuan.</t>
+  </si>
+  <si>
+    <t>"Tadi malam, Presiden Jokowi memberi persetujuan kepada kami untuk menerima bantuan internasional untuk penanganan darurat bencana.</t>
+  </si>
+  <si>
+    <t>Saya membantu mengoordinasikan bantuan sektor swasta dari seantero dunia.</t>
+  </si>
+  <si>
+    <t>"Beliau mengatakan bahwa Presiden telah menyatakan menerima bantuan internasional sesuai kebutuhan kita.</t>
+  </si>
+  <si>
+    <t>Nanti akan dikoordinir Menkopolhukam.</t>
+  </si>
+  <si>
+    <t>"DeclareÂ bantuan internasional itu tidak harus status bencana nasional.</t>
+  </si>
+  <si>
+    <t>Presiden tidakÂ mendeclareÂ status bencana nasional.</t>
+  </si>
+  <si>
+    <t>Dalam pernyataan resminya yang dikutipÂ ABC, Perdana Menteri Australia, Scott Morrison, mengaku telah menghubungi Presiden Joko Widodo untuk menyampaikan komitmennya dalam memberi dukungan.</t>
+  </si>
+  <si>
+    <t>"Jika dia perlu bantuan kita, dia akan mendapatkannya," kata Morrison kepadaÂ ABC.</t>
+  </si>
+  <si>
+    <t>"Saya terkejut mendengar gempa bumi kuat dan tsunami yang besar menghantam Provinsi Sulawesi Tengah dan sedih dengan banyaknya nyawa yang hilang dan kerusakan yang terjadi," kata Xi seperti dilansir dariÂ China Daily, Minggu (30/9).</t>
+  </si>
+  <si>
+    <t>"Kesulitan kami yang terutama adalah sumber air.</t>
+  </si>
+  <si>
+    <t>Setiap titik setidaknya memerlukan waktu satu jam.</t>
+  </si>
+  <si>
+    <t>Selain mereka yang bergerak di bawah kementerian dan lembaga pemerintahan, sejumlah lembaga swadaya masyarakat pun ikut ambil bagian dalam penanganan karhutla.</t>
+  </si>
+  <si>
+    <t>"Kami belum pulang (dari sekolah), tiba-tiba ada api membesar di belakang gedung sekolah.</t>
+  </si>
+  <si>
+    <t>Dengan respons spontan, kita ambil ember, kita siramin," tuturnya.</t>
+  </si>
+  <si>
+    <t>Kejadian itu, menurutnya, terjadi beberapa kali di sekitar sekolahnya dulu.</t>
+  </si>
+  <si>
+    <t>"Ini bisa dicegah, ini bisa dihentikan.</t>
+  </si>
+  <si>
+    <t>Karena ini bukan bencana alam seperti gempa atau tsunami yang datangnya tiba-tiba - hanya Tuhan yang tahu.</t>
+  </si>
+  <si>
+    <t>Menghentikan rambatan api karhutla nyatanya bukan hanya dilakoni para pemadam profesional dan relawan, melainkan juga warga setempat.</t>
+  </si>
+  <si>
+    <t>Lahannya 'hanya' berukuran 20x40 meter yang terdiri dari tanah gambut.</t>
+  </si>
+  <si>
+    <t>"Ini pohon nanas, di depan ini sudah mati semua.</t>
+  </si>
+  <si>
+    <t>Sebagian besar habis terbakar.</t>
+  </si>
+  <si>
+    <t>"Sepandangan mata saya selama berapa hari ini nggak ada yang lewat.</t>
+  </si>
+  <si>
+    <t>Ada satu, cuma nengok aja, lalu pergi lagi.</t>
+  </si>
+  <si>
+    <t>Alhasil, pria paruh baya itu pun turut memadamkan api di lahan milik orang lain, agar percikan api tidak menjalar lebih parah ke kebunnya Sebelumnya, relawan datang membantu melawan api, namun terhenti karena habisnya sumber air dari sumur galian terdekat.</t>
+  </si>
+  <si>
+    <t>"Kalau mobil-mobil pemadam itu mungkin di daerah-daerah jalan besar aja.</t>
+  </si>
+  <si>
+    <t>Soal kerugian, ia tidak bisa menghitungnya.</t>
+  </si>
+  <si>
+    <t>"Kalau harga satu pohon rambutan sih berapa saja, 20 ribu?</t>
+  </si>
+  <si>
+    <t>Tapi merawatnya itu empat tahunan loh, Mas," ungkap Gusti getir.</t>
+  </si>
+  <si>
+    <t>"Tanah sudah begini keadaannya, merawatnya sulit.</t>
+  </si>
+  <si>
+    <t>Perlu tenaga, biaya, mencangkuli lagi karena berlubang-lubang.</t>
   </si>
 </sst>
 </file>
@@ -1513,14 +1365,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF404040"/>
+      <color rgb="FF1E1E1E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1E1E1E"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1558,7 +1410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1603,13 +1455,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1643,13 +1508,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1678,6 +1540,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1961,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,18 +1844,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -2000,31 +1870,31 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
-        <f>ROUNDUP(0.05*$B$43,0)</f>
+        <f>ROUNDUP(0.05*$B$46,0)</f>
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <f>ROUNDUP(0.1*$B$43,0)</f>
+        <f>ROUNDUP(0.1*$B$46,0)</f>
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <f>ROUNDUP(0.2*$B$43,0)</f>
+        <f>ROUNDUP(0.2*$B$46,0)</f>
         <v>8</v>
       </c>
       <c r="E4" s="4">
-        <f>ROUNDUP(0.3*$B$43,0)</f>
-        <v>11</v>
+        <f>ROUNDUP(0.3*$B$46,0)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2065,7 +1935,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2074,7 +1944,7 @@
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2083,7 +1953,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2092,7 +1962,7 @@
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2110,7 +1980,7 @@
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2119,7 +1989,7 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2128,7 +1998,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2137,7 +2007,7 @@
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2146,7 +2016,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2155,7 +2025,7 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2164,7 +2034,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2173,7 +2043,7 @@
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2182,7 +2052,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2191,7 +2061,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2216,9 +2086,9 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2227,25 +2097,25 @@
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>94</v>
+        <v>308</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2254,16 +2124,16 @@
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2272,16 +2142,16 @@
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2290,16 +2160,16 @@
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2308,16 +2178,16 @@
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2326,53 +2196,80 @@
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="8">
-        <f>ROWS(A5:A40)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="8" t="s">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="8">
+        <f>ROWS(A5:A43)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="8" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2390,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,18 +2297,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -2426,16 +2323,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$63,0)</f>
         <v>3</v>
@@ -2446,7 +2343,7 @@
       </c>
       <c r="D4" s="4">
         <f>ROUNDUP(0.2*$B$63,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
         <f>ROUNDUP(0.3*$B$63,0)</f>
@@ -2455,522 +2352,531 @@
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+        <v>270</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+        <v>271</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+        <v>272</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+        <v>273</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+        <v>379</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+        <v>291</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+        <v>292</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+        <v>380</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+        <v>274</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+        <v>275</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+        <v>381</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+        <v>293</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+        <v>276</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+        <v>277</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+        <v>278</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+        <v>279</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+        <v>280</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+        <v>382</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+        <v>384</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+        <v>283</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+        <v>284</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+        <v>285</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+        <v>295</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+        <v>296</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+        <v>298</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+        <v>289</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+        <v>391</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+        <v>393</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+        <v>301</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+        <v>394</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+        <v>302</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
+        <v>290</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+        <v>395</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
+        <v>396</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
+        <v>397</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
+        <v>398</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
+        <v>399</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B63">
-        <f>ROWS(A5:A59)</f>
-        <v>55</v>
+        <f>ROWS(A5:A60)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>377</v>
+        <v>24</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2997,18 +2903,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -3023,126 +2929,126 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="17">
+      <c r="A4" s="25"/>
+      <c r="B4" s="16">
         <f>ROUNDUP(0.05*$B$17,0)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>ROUNDUP(0.1*$B$17,0)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f>ROUNDUP(0.2*$B$17,0)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f>ROUNDUP(0.3*$B$17,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="A6" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="A7" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="A8" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="A9" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="A10" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="A11" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="A12" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="A13" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <f>ROWS(A5:A14)</f>
@@ -3151,18 +3057,18 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>253</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3190,18 +3096,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -3216,16 +3122,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$34,0)</f>
         <v>2</v>
@@ -3245,7 +3151,7 @@
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3254,7 +3160,7 @@
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3263,7 +3169,7 @@
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3272,7 +3178,7 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3281,7 +3187,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3290,7 +3196,7 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3299,7 +3205,7 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3308,7 +3214,7 @@
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3317,7 +3223,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3326,7 +3232,7 @@
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3335,7 +3241,7 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3344,7 +3250,7 @@
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3353,7 +3259,7 @@
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3362,7 +3268,7 @@
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3371,7 +3277,7 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3380,7 +3286,7 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3389,7 +3295,7 @@
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3398,7 +3304,7 @@
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3407,7 +3313,7 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3416,7 +3322,7 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3425,7 +3331,7 @@
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3434,7 +3340,7 @@
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3443,7 +3349,7 @@
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3452,7 +3358,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3461,7 +3367,7 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3470,7 +3376,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3479,7 +3385,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B34" s="8">
         <f>ROWS(A5:A30)</f>
@@ -3488,18 +3394,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3515,10 +3421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,18 +3434,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -3554,284 +3460,299 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
-        <f>ROUNDUP(0.05*$B$32,0)</f>
+        <f>ROUNDUP(0.05*$B$33,0)</f>
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <f>ROUNDUP(0.1*$B$32,0)</f>
+        <f>ROUNDUP(0.1*$B$33,0)</f>
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <f>ROUNDUP(0.2*$B$32,0)</f>
-        <v>5</v>
+        <f>ROUNDUP(0.2*$B$33,0)</f>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
-        <f>ROUNDUP(0.3*$B$32,0)</f>
-        <v>8</v>
+        <f>ROUNDUP(0.3*$B$33,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5"/>
+      <c r="A5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="26"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="26"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="A7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5"/>
+      <c r="A8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="26"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="A10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="26"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="5"/>
+      <c r="A11" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="26"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="5"/>
+      <c r="A12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="26"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="26"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="5"/>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="26"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="5"/>
+      <c r="A15" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="26"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="5"/>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="26"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5"/>
+      <c r="A18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="26"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="5"/>
+      <c r="A19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="26"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="26"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="5"/>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="5"/>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5"/>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="5"/>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="5"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="26"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="26"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="5"/>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="26"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="5"/>
+      <c r="A28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="26"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="5"/>
+      <c r="A29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="26"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="7">
-        <f>ROWS(A5:A29)</f>
-        <v>25</v>
-      </c>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="7">
+        <f>ROWS(A5:A31)</f>
         <v>27</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +3762,7 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B34" r:id="rId1"/>
+    <hyperlink ref="B35" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3850,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,18 +3784,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -3889,36 +3810,36 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
-        <f>ROUNDUP(0.05*$B$37,0)</f>
+        <f>ROUNDUP(0.05*$B$38,0)</f>
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <f>ROUNDUP(0.1*$B$37,0)</f>
-        <v>3</v>
+        <f>ROUNDUP(0.1*$B$38,0)</f>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <f>ROUNDUP(0.2*$B$37,0)</f>
-        <v>6</v>
+        <f>ROUNDUP(0.2*$B$38,0)</f>
+        <v>7</v>
       </c>
       <c r="E4" s="4">
-        <f>ROUNDUP(0.3*$B$37,0)</f>
-        <v>9</v>
+        <f>ROUNDUP(0.3*$B$38,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3927,7 +3848,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3936,7 +3857,7 @@
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3945,7 +3866,7 @@
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3954,7 +3875,7 @@
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3963,7 +3884,7 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3972,7 +3893,7 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3981,7 +3902,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3990,7 +3911,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3999,7 +3920,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4008,7 +3929,7 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4017,7 +3938,7 @@
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4026,7 +3947,7 @@
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4035,7 +3956,7 @@
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4044,7 +3965,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4053,7 +3974,7 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4062,7 +3983,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4071,7 +3992,7 @@
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4080,7 +4001,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4089,34 +4010,34 @@
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4125,7 +4046,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4134,7 +4055,7 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4143,16 +4064,16 @@
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4161,14 +4082,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>121</v>
       </c>
@@ -4179,40 +4100,49 @@
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="7">
-        <f>ROWS(A5:A34)</f>
-        <v>30</v>
-      </c>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>130</v>
+        <v>22</v>
+      </c>
+      <c r="B38" s="7">
+        <f>ROWS(A5:A35)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>131</v>
+        <v>24</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4226,10 +4156,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,18 +4168,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -4264,470 +4194,533 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17">
-        <f>ROUNDUP(0.05*$B$54,0)</f>
+      <c r="A4" s="24"/>
+      <c r="B4" s="16">
+        <f>ROUNDUP(0.05*$B$61,0)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="17">
-        <f>ROUNDUP(0.1*$B$54,0)</f>
-        <v>5</v>
-      </c>
-      <c r="D4" s="17">
-        <f>ROUNDUP(0.2*$B$54,0)</f>
-        <v>10</v>
-      </c>
-      <c r="E4" s="17">
-        <f>ROUNDUP(0.3*$B$54,0)</f>
-        <v>14</v>
+      <c r="C4" s="16">
+        <f>ROUNDUP(0.1*$B$61,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="16">
+        <f>ROUNDUP(0.2*$B$61,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E4" s="16">
+        <f>ROUNDUP(0.3*$B$61,0)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+        <v>144</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+        <v>125</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+        <v>126</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+        <v>127</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+        <v>320</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+        <v>321</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+        <v>342</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+        <v>325</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+        <v>140</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+        <v>141</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+        <v>147</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+        <v>332</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+        <v>142</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+        <v>343</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+        <v>336</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+        <v>149</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54">
-        <f>ROWS(A5:A50)</f>
-        <v>46</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>179</v>
+      <c r="A55" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <f>ROWS(A5:A57)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E4"/>
     </sheetView>
   </sheetViews>
@@ -4755,18 +4748,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -4781,16 +4774,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$37,0)</f>
         <v>2</v>
@@ -4810,7 +4803,7 @@
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4819,7 +4812,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4828,7 +4821,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4837,7 +4830,7 @@
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4846,7 +4839,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4855,7 +4848,7 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4864,7 +4857,7 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4873,7 +4866,7 @@
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4882,7 +4875,7 @@
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4891,7 +4884,7 @@
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4900,7 +4893,7 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4909,7 +4902,7 @@
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4918,7 +4911,7 @@
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4927,7 +4920,7 @@
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4936,7 +4929,7 @@
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4945,7 +4938,7 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4954,7 +4947,7 @@
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4963,7 +4956,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4972,7 +4965,7 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4981,7 +4974,7 @@
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -4990,7 +4983,7 @@
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4999,7 +4992,7 @@
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5008,7 +5001,7 @@
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5017,7 +5010,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5026,7 +5019,7 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5035,7 +5028,7 @@
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5044,7 +5037,7 @@
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5053,7 +5046,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5062,7 +5055,7 @@
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5071,7 +5064,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1">
         <f>ROWS(A5:A33)</f>
@@ -5080,18 +5073,18 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>245</v>
+        <v>24</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5108,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,18 +5111,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -5144,16 +5137,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$40,0)</f>
         <v>2</v>
@@ -5173,7 +5166,7 @@
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5182,7 +5175,7 @@
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5191,7 +5184,7 @@
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5200,7 +5193,7 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5209,7 +5202,7 @@
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>248</v>
+        <v>346</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5218,7 +5211,7 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5227,7 +5220,7 @@
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5236,7 +5229,7 @@
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5245,7 +5238,7 @@
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5254,7 +5247,7 @@
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5263,7 +5256,7 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>230</v>
+        <v>348</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5272,7 +5265,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>229</v>
+        <v>349</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5281,16 +5274,16 @@
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5299,7 +5292,7 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>216</v>
+        <v>351</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5308,79 +5301,79 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5389,25 +5382,25 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>251</v>
+        <v>355</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5416,63 +5409,81 @@
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <f>ROWS(A5:A35)</f>
-        <v>31</v>
+        <f>ROWS(A5:A37)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>253</v>
+        <v>24</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5490,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5500,18 +5511,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -5526,16 +5537,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$39,0)</f>
         <v>2</v>
@@ -5554,307 +5565,325 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="A6" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="A7" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="A8" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="A9" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="A14" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="A19" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="A21" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="A22" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="A27" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="A28" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="A29" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="A30" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="A31" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="A32" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="A33" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="A34" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="A35" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <f>ROWS(A5:A35)</f>
-        <v>31</v>
+        <f>ROWS(A5:A37)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>281</v>
+        <v>24</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5869,10 +5898,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5881,18 +5910,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -5907,389 +5936,416 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
-        <f>ROUNDUP(0.05*$B$44,0)</f>
+        <f>ROUNDUP(0.05*$B$46,0)</f>
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <f>ROUNDUP(0.1*$B$44,0)</f>
+        <f>ROUNDUP(0.1*$B$46,0)</f>
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <f>ROUNDUP(0.2*$B$44,0)</f>
+        <f>ROUNDUP(0.2*$B$46,0)</f>
         <v>8</v>
       </c>
       <c r="E4" s="4">
-        <f>ROUNDUP(0.3*$B$44,0)</f>
+        <f>ROUNDUP(0.3*$B$46,0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+        <v>241</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+        <v>243</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+        <v>245</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+        <v>246</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+        <v>371</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+        <v>250</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+        <v>377</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+        <v>378</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+        <v>253</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+        <v>256</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44">
-        <f>ROWS(A5:A41)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>321</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" t="s">
-        <v>320</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <f>ROWS(A5:A44)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/evaluasi/Dokumen Evaluasi Sistem Peringkasan Otomatis.xlsx
+++ b/evaluasi/Dokumen Evaluasi Sistem Peringkasan Otomatis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="dok 1" sheetId="2" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1553,6 +1553,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1568,13 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1870,18 +1871,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -1896,16 +1897,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$46,0)</f>
         <v>2</v>
@@ -1927,28 +1928,28 @@
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1966,7 +1967,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1975,7 +1976,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="30"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -2000,9 +2001,9 @@
         <v>8</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2063,7 +2064,7 @@
         <v>85</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="30"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
@@ -2100,8 +2101,8 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -2109,8 +2110,8 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -2118,8 +2119,8 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -2127,8 +2128,8 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -2164,7 +2165,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="30"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -2173,7 +2174,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="30"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -2323,18 +2324,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -2349,16 +2350,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$63,0)</f>
         <v>3</v>
@@ -2380,27 +2381,27 @@
       <c r="A5" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2408,8 +2409,8 @@
         <v>273</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,8 +2463,8 @@
         <v>275</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2471,8 +2472,8 @@
         <v>381</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2607,7 +2608,7 @@
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2625,7 +2626,7 @@
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2643,7 +2644,7 @@
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2661,7 +2662,7 @@
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2670,7 +2671,7 @@
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2715,8 +2716,8 @@
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -2724,8 +2725,8 @@
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="32"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
@@ -2734,7 +2735,7 @@
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="32"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
@@ -2742,8 +2743,8 @@
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="32"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
@@ -2770,7 +2771,7 @@
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="34"/>
+      <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
@@ -2779,7 +2780,7 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="32"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
@@ -2788,7 +2789,7 @@
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="32"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -2920,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2930,18 +2931,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -2956,16 +2957,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="16">
         <f>ROUNDUP(0.05*$B$17,0)</f>
         <v>1</v>
@@ -2987,10 +2988,10 @@
       <c r="A5" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -3007,8 +3008,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -3071,7 +3072,7 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -3123,18 +3124,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -3149,16 +3150,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$34,0)</f>
         <v>2</v>
@@ -3180,19 +3181,19 @@
       <c r="A5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -3264,7 +3265,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -3291,7 +3292,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -3334,9 +3335,9 @@
         <v>61</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -3362,8 +3363,8 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3380,8 +3381,8 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -3389,7 +3390,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3408,7 +3409,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="30"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -3461,18 +3462,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -3487,16 +3488,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$33,0)</f>
         <v>2</v>
@@ -3518,19 +3519,19 @@
       <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
@@ -3539,7 +3540,7 @@
       <c r="B7" s="21"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="30"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -3548,7 +3549,7 @@
       <c r="B8" s="21"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="30"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -3573,9 +3574,9 @@
         <v>117</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
@@ -3593,7 +3594,7 @@
       <c r="B13" s="21"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3727,8 +3728,8 @@
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
@@ -3736,8 +3737,8 @@
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -3745,8 +3746,8 @@
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -3811,18 +3812,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -3837,16 +3838,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$38,0)</f>
         <v>2</v>
@@ -3868,19 +3869,19 @@
       <c r="A5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -3896,18 +3897,18 @@
         <v>97</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -3924,8 +3925,8 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -4006,7 +4007,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -4069,7 +4070,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="30"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -4086,8 +4087,8 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -4104,8 +4105,8 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -4141,7 +4142,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="30"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -4195,18 +4196,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -4221,16 +4222,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="16">
         <f>ROUNDUP(0.05*$B$61,0)</f>
         <v>3</v>
@@ -4252,46 +4253,46 @@
       <c r="A5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -4505,9 +4506,9 @@
         <v>140</v>
       </c>
       <c r="B33" s="17"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -4515,8 +4516,8 @@
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -4551,8 +4552,8 @@
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -4578,8 +4579,8 @@
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4596,8 +4597,8 @@
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
@@ -4641,8 +4642,8 @@
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
@@ -4651,7 +4652,7 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="32"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
@@ -4669,7 +4670,7 @@
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="32"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
@@ -4687,7 +4688,7 @@
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="32"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -4696,7 +4697,7 @@
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="32"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -4705,7 +4706,7 @@
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="32"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
@@ -4775,18 +4776,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -4801,16 +4802,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$37,0)</f>
         <v>2</v>
@@ -4832,19 +4833,19 @@
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -4869,9 +4870,9 @@
         <v>156</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -4879,8 +4880,8 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -4888,8 +4889,8 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -4933,8 +4934,8 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -4961,7 +4962,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="30"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -4979,7 +4980,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="30"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -4988,7 +4989,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="30"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -4997,7 +4998,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="30"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -5128,28 +5129,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -5164,16 +5168,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$40,0)</f>
         <v>2</v>
@@ -5195,10 +5199,10 @@
       <c r="A5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -5213,10 +5217,10 @@
       <c r="A7" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -5241,18 +5245,18 @@
         <v>186</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -5287,8 +5291,8 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -5296,8 +5300,8 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -5359,8 +5363,8 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -5369,7 +5373,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="30"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -5378,7 +5382,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="30"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -5396,7 +5400,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="30"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -5509,7 +5513,7 @@
       <c r="A42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="37" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5519,8 +5523,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A1:A4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B42" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5538,18 +5545,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -5564,16 +5571,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$39,0)</f>
         <v>2</v>
@@ -5595,8 +5602,8 @@
       <c r="A5" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
@@ -5604,8 +5611,8 @@
       <c r="A6" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
     </row>
@@ -5623,7 +5630,7 @@
         <v>222</v>
       </c>
       <c r="B8" s="23"/>
-      <c r="C8" s="32"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
@@ -5632,7 +5639,7 @@
         <v>223</v>
       </c>
       <c r="B9" s="23"/>
-      <c r="C9" s="32"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
@@ -5659,9 +5666,9 @@
         <v>234</v>
       </c>
       <c r="B12" s="23"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
@@ -5697,7 +5704,7 @@
       <c r="B16" s="23"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
@@ -5706,7 +5713,7 @@
       <c r="B17" s="23"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
@@ -5722,18 +5729,18 @@
         <v>227</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>228</v>
       </c>
       <c r="B20" s="23"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -5778,7 +5785,7 @@
       <c r="B25" s="23"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="32"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -5937,18 +5944,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3">
         <v>0.05</v>
       </c>
@@ -5963,16 +5970,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <f>ROUNDUP(0.05*$B$46,0)</f>
         <v>2</v>
@@ -5994,19 +6001,19 @@
       <c r="A5" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -6067,9 +6074,9 @@
         <v>369</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -6193,9 +6200,9 @@
         <v>248</v>
       </c>
       <c r="B27" s="17"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -6203,8 +6210,8 @@
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -6212,8 +6219,8 @@
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -6221,8 +6228,8 @@
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -6248,8 +6255,8 @@
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -6267,7 +6274,7 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="32"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -6285,7 +6292,7 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="32"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -6312,7 +6319,7 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="32"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -6339,7 +6346,7 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="32"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
